--- a/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20140701_Leak4.xlsx
+++ b/GC-Data-Raw-R/GC-Data-standardizedfilenames/runsheets-standardizedfilenames/runsheet_20140701_Leak4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="18660" yWindow="0" windowWidth="14800" windowHeight="18760" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="32">
   <si>
     <t>SampleName</t>
   </si>
@@ -84,22 +84,37 @@
     <t>2014.07.01</t>
   </si>
   <si>
-    <t>AU-Mix1</t>
-  </si>
-  <si>
-    <t>AU-Mix2</t>
-  </si>
-  <si>
-    <t>AU-3N2O</t>
-  </si>
-  <si>
-    <t>AU-3KCO2</t>
-  </si>
-  <si>
-    <t>AU-10N2O</t>
-  </si>
-  <si>
-    <t>AU-amb</t>
+    <t>Mix1Leak</t>
+  </si>
+  <si>
+    <t>Mix2Leak</t>
+  </si>
+  <si>
+    <t>3N2OLeak</t>
+  </si>
+  <si>
+    <t>10N2OLeak</t>
+  </si>
+  <si>
+    <t>3KCO2Leak</t>
+  </si>
+  <si>
+    <t>AU-Mix1Leak</t>
+  </si>
+  <si>
+    <t>AU-Mix2Leak</t>
+  </si>
+  <si>
+    <t>AU-3N2OLeak</t>
+  </si>
+  <si>
+    <t>AU-10N2OLeak</t>
+  </si>
+  <si>
+    <t>AU-3KCO2Leak</t>
+  </si>
+  <si>
+    <t>AU-ambLeak</t>
   </si>
 </sst>
 </file>
@@ -153,8 +168,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="271">
+  <cellStyleXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="271">
+  <cellStyles count="285">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -567,6 +596,13 @@
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -702,6 +738,13 @@
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1034,7 +1077,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1090,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1122,7 +1165,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1154,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1186,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1218,7 +1261,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1250,7 +1293,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1282,7 +1325,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -1314,7 +1357,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1346,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1378,7 +1421,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1410,7 +1453,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1442,7 +1485,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1474,7 +1517,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1506,7 +1549,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1538,7 +1581,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1858,7 +1901,7 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -1890,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1922,7 +1965,7 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -1954,7 +1997,7 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -1986,7 +2029,7 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -2018,7 +2061,7 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -2050,7 +2093,7 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -2082,7 +2125,7 @@
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -2114,7 +2157,7 @@
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -2146,7 +2189,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -2178,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -2210,7 +2253,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -2242,7 +2285,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -2274,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -2306,7 +2349,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -2338,7 +2381,7 @@
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -2370,7 +2413,7 @@
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -2402,7 +2445,7 @@
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -2434,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
